--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18741505273935</v>
+        <v>2.102666333333334</v>
       </c>
       <c r="H2">
-        <v>1.18741505273935</v>
+        <v>6.307999000000001</v>
       </c>
       <c r="I2">
-        <v>0.02317165914277497</v>
+        <v>0.03992401473981187</v>
       </c>
       <c r="J2">
-        <v>0.02317165914277497</v>
+        <v>0.03992401473981187</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.44025675430253</v>
+        <v>5.067615666666667</v>
       </c>
       <c r="N2">
-        <v>2.44025675430253</v>
+        <v>15.202847</v>
       </c>
       <c r="O2">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514926</v>
       </c>
       <c r="P2">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514925</v>
       </c>
       <c r="Q2">
-        <v>2.897597602607694</v>
+        <v>10.65550485257256</v>
       </c>
       <c r="R2">
-        <v>2.897597602607694</v>
+        <v>95.899543673153</v>
       </c>
       <c r="S2">
-        <v>0.01051408769488527</v>
+        <v>0.02478414329636208</v>
       </c>
       <c r="T2">
-        <v>0.01051408769488527</v>
+        <v>0.02478414329636208</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18741505273935</v>
+        <v>2.102666333333334</v>
       </c>
       <c r="H3">
-        <v>1.18741505273935</v>
+        <v>6.307999000000001</v>
       </c>
       <c r="I3">
-        <v>0.02317165914277497</v>
+        <v>0.03992401473981187</v>
       </c>
       <c r="J3">
-        <v>0.02317165914277497</v>
+        <v>0.03992401473981187</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.37203834344354</v>
+        <v>1.388310333333333</v>
       </c>
       <c r="N3">
-        <v>1.37203834344354</v>
+        <v>4.164931</v>
       </c>
       <c r="O3">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="P3">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="Q3">
-        <v>1.629178981940421</v>
+        <v>2.919153398118778</v>
       </c>
       <c r="R3">
-        <v>1.629178981940421</v>
+        <v>26.272380583069</v>
       </c>
       <c r="S3">
-        <v>0.005911562969050621</v>
+        <v>0.006789797116517756</v>
       </c>
       <c r="T3">
-        <v>0.005911562969050621</v>
+        <v>0.006789797116517755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.18741505273935</v>
+        <v>2.102666333333334</v>
       </c>
       <c r="H4">
-        <v>1.18741505273935</v>
+        <v>6.307999000000001</v>
       </c>
       <c r="I4">
-        <v>0.02317165914277497</v>
+        <v>0.03992401473981187</v>
       </c>
       <c r="J4">
-        <v>0.02317165914277497</v>
+        <v>0.03992401473981187</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.56570814632613</v>
+        <v>1.707340333333333</v>
       </c>
       <c r="N4">
-        <v>1.56570814632613</v>
+        <v>5.122021</v>
       </c>
       <c r="O4">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="P4">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="Q4">
-        <v>1.859145421144272</v>
+        <v>3.589967038442112</v>
       </c>
       <c r="R4">
-        <v>1.859145421144272</v>
+        <v>32.309703345979</v>
       </c>
       <c r="S4">
-        <v>0.006746008478839077</v>
+        <v>0.008350074326932041</v>
       </c>
       <c r="T4">
-        <v>0.006746008478839077</v>
+        <v>0.008350074326932039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.6387818396616</v>
+        <v>27.75404733333334</v>
       </c>
       <c r="H5">
-        <v>27.6387818396616</v>
+        <v>83.26214200000001</v>
       </c>
       <c r="I5">
-        <v>0.5393534724296104</v>
+        <v>0.526975192050016</v>
       </c>
       <c r="J5">
-        <v>0.5393534724296104</v>
+        <v>0.5269751920500161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.44025675430253</v>
+        <v>5.067615666666667</v>
       </c>
       <c r="N5">
-        <v>2.44025675430253</v>
+        <v>15.202847</v>
       </c>
       <c r="O5">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514926</v>
       </c>
       <c r="P5">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514925</v>
       </c>
       <c r="Q5">
-        <v>67.44572406492833</v>
+        <v>140.6468450798082</v>
       </c>
       <c r="R5">
-        <v>67.44572406492833</v>
+        <v>1265.821605718274</v>
       </c>
       <c r="S5">
-        <v>0.2447304128169862</v>
+        <v>0.3271371568844649</v>
       </c>
       <c r="T5">
-        <v>0.2447304128169862</v>
+        <v>0.3271371568844649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.6387818396616</v>
+        <v>27.75404733333334</v>
       </c>
       <c r="H6">
-        <v>27.6387818396616</v>
+        <v>83.26214200000001</v>
       </c>
       <c r="I6">
-        <v>0.5393534724296104</v>
+        <v>0.526975192050016</v>
       </c>
       <c r="J6">
-        <v>0.5393534724296104</v>
+        <v>0.5269751920500161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.37203834344354</v>
+        <v>1.388310333333333</v>
       </c>
       <c r="N6">
-        <v>1.37203834344354</v>
+        <v>4.164931</v>
       </c>
       <c r="O6">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="P6">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="Q6">
-        <v>37.9214684500867</v>
+        <v>38.53123070468911</v>
       </c>
       <c r="R6">
-        <v>37.9214684500867</v>
+        <v>346.7810763422021</v>
       </c>
       <c r="S6">
-        <v>0.1376000740904181</v>
+        <v>0.08962161402794956</v>
       </c>
       <c r="T6">
-        <v>0.1376000740904181</v>
+        <v>0.08962161402794958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.6387818396616</v>
+        <v>27.75404733333334</v>
       </c>
       <c r="H7">
-        <v>27.6387818396616</v>
+        <v>83.26214200000001</v>
       </c>
       <c r="I7">
-        <v>0.5393534724296104</v>
+        <v>0.526975192050016</v>
       </c>
       <c r="J7">
-        <v>0.5393534724296104</v>
+        <v>0.5269751920500161</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56570814632613</v>
+        <v>1.707340333333333</v>
       </c>
       <c r="N7">
-        <v>1.56570814632613</v>
+        <v>5.122021</v>
       </c>
       <c r="O7">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="P7">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="Q7">
-        <v>43.27426588088887</v>
+        <v>47.38560442544245</v>
       </c>
       <c r="R7">
-        <v>43.27426588088887</v>
+        <v>426.4704398289821</v>
       </c>
       <c r="S7">
-        <v>0.1570229855222062</v>
+        <v>0.1102164211376016</v>
       </c>
       <c r="T7">
-        <v>0.1570229855222062</v>
+        <v>0.1102164211376016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.4180858507099</v>
+        <v>22.809992</v>
       </c>
       <c r="H8">
-        <v>22.4180858507099</v>
+        <v>68.42997600000001</v>
       </c>
       <c r="I8">
-        <v>0.4374748684276146</v>
+        <v>0.4331007932101721</v>
       </c>
       <c r="J8">
-        <v>0.4374748684276146</v>
+        <v>0.4331007932101721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.44025675430253</v>
+        <v>5.067615666666667</v>
       </c>
       <c r="N8">
-        <v>2.44025675430253</v>
+        <v>15.202847</v>
       </c>
       <c r="O8">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514926</v>
       </c>
       <c r="P8">
-        <v>0.4537477282097693</v>
+        <v>0.6207828410514925</v>
       </c>
       <c r="Q8">
-        <v>54.70588541572882</v>
+        <v>115.5922728157414</v>
       </c>
       <c r="R8">
-        <v>54.70588541572882</v>
+        <v>1040.330455341672</v>
       </c>
       <c r="S8">
-        <v>0.1985032276978979</v>
+        <v>0.2688615408706657</v>
       </c>
       <c r="T8">
-        <v>0.1985032276978979</v>
+        <v>0.2688615408706656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.4180858507099</v>
+        <v>22.809992</v>
       </c>
       <c r="H9">
-        <v>22.4180858507099</v>
+        <v>68.42997600000001</v>
       </c>
       <c r="I9">
-        <v>0.4374748684276146</v>
+        <v>0.4331007932101721</v>
       </c>
       <c r="J9">
-        <v>0.4374748684276146</v>
+        <v>0.4331007932101721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.37203834344354</v>
+        <v>1.388310333333333</v>
       </c>
       <c r="N9">
-        <v>1.37203834344354</v>
+        <v>4.164931</v>
       </c>
       <c r="O9">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="P9">
-        <v>0.2551204008580402</v>
+        <v>0.1700679944331107</v>
       </c>
       <c r="Q9">
-        <v>30.75847337378307</v>
+        <v>31.66734759685067</v>
       </c>
       <c r="R9">
-        <v>30.75847337378307</v>
+        <v>285.0061283716561</v>
       </c>
       <c r="S9">
-        <v>0.1116087637985714</v>
+        <v>0.07365658328864338</v>
       </c>
       <c r="T9">
-        <v>0.1116087637985714</v>
+        <v>0.07365658328864338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.4180858507099</v>
+        <v>22.809992</v>
       </c>
       <c r="H10">
-        <v>22.4180858507099</v>
+        <v>68.42997600000001</v>
       </c>
       <c r="I10">
-        <v>0.4374748684276146</v>
+        <v>0.4331007932101721</v>
       </c>
       <c r="J10">
-        <v>0.4374748684276146</v>
+        <v>0.4331007932101721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.56570814632613</v>
+        <v>1.707340333333333</v>
       </c>
       <c r="N10">
-        <v>1.56570814632613</v>
+        <v>5.122021</v>
       </c>
       <c r="O10">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="P10">
-        <v>0.2911318709321906</v>
+        <v>0.2091491645153968</v>
       </c>
       <c r="Q10">
-        <v>35.10017964149504</v>
+        <v>38.94441934461068</v>
       </c>
       <c r="R10">
-        <v>35.10017964149504</v>
+        <v>350.4997741014961</v>
       </c>
       <c r="S10">
-        <v>0.1273628769311454</v>
+        <v>0.09058266905086315</v>
       </c>
       <c r="T10">
-        <v>0.1273628769311454</v>
+        <v>0.09058266905086314</v>
       </c>
     </row>
   </sheetData>
